--- a/biology/Médecine/Fracture_de_Maisonneuve/Fracture_de_Maisonneuve.xlsx
+++ b/biology/Médecine/Fracture_de_Maisonneuve/Fracture_de_Maisonneuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fracture de Maisonneuve comprend une rupture du ligament deltoïde ou une fracture-avulsion horizontale de la malléole interne, associée à une longue fracture oblique de la fibula (péroné).
 La fracture est associée à une déchirure de la partie distale de la syndesmose tibio-fibulaire et de la membrane interosseuse avec parfois une lésion du nerf fibulaire (nerf péronier commun ou nerf sciatique poplité externe) qui passe au niveau du col de la fibula. Cette atteinte du nerf peut entraîner une paralysie de la loge musculaire antérieure de la jambe, d’où l'impossibilité de relever le pied.
